--- a/jmetal4.5/results/results-intensity.xlsx
+++ b/jmetal4.5/results/results-intensity.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="low_low_0" sheetId="1" r:id="rId1"/>
-    <sheet name="low_med_0" sheetId="2" r:id="rId2"/>
-    <sheet name="high_0" sheetId="3" r:id="rId3"/>
+    <sheet name="low_vlow_0" sheetId="4" r:id="rId1"/>
+    <sheet name="low_low_0" sheetId="1" r:id="rId2"/>
+    <sheet name="low_med_0" sheetId="2" r:id="rId3"/>
+    <sheet name="low_high_0" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>QoS</t>
   </si>
@@ -160,7 +161,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>low_low_0!$D$2:$D$179</c:f>
+              <c:f>low_vlow_0!$D$2:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="178"/>
@@ -168,435 +169,363 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98392717149409659</c:v>
+                  <c:v>0.99759372780805022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98169586518149254</c:v>
+                  <c:v>0.99666610394710475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97486867001953315</c:v>
+                  <c:v>0.99612567432837906</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97218046509450706</c:v>
+                  <c:v>0.99181405759683661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97064477696217444</c:v>
+                  <c:v>0.98777641070513378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96281657625603656</c:v>
+                  <c:v>0.9842588981160022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9600969430209908</c:v>
+                  <c:v>0.98002820361493526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95249328236537911</c:v>
+                  <c:v>0.97460983265933099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94750385175828455</c:v>
+                  <c:v>0.96495834316658879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93184919146848866</c:v>
+                  <c:v>0.95788365245678841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92333820397888078</c:v>
+                  <c:v>0.95625379832549462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91329614293096684</c:v>
+                  <c:v>0.93420253941907427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.90989582260872059</c:v>
+                  <c:v>0.93286419534318665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90749447626409296</c:v>
+                  <c:v>0.92841853802165852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.90619468275833426</c:v>
+                  <c:v>0.9267697980232863</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.90262913279066548</c:v>
+                  <c:v>0.92547110745946803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.90223098510080146</c:v>
+                  <c:v>0.92460643647218832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89450439516264035</c:v>
+                  <c:v>0.91968405643264639</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89264819328259259</c:v>
+                  <c:v>0.91799150556020603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89081701723474993</c:v>
+                  <c:v>0.91419178343905461</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88982808672224967</c:v>
+                  <c:v>0.91177068635729364</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88819275407258591</c:v>
+                  <c:v>0.90924429338362545</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88559757911930126</c:v>
+                  <c:v>0.90593342669590993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88252888947004549</c:v>
+                  <c:v>0.90517367449585284</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.87796181531085171</c:v>
+                  <c:v>0.901602333571769</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87378981211649687</c:v>
+                  <c:v>0.89184841375831114</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.8732167801448909</c:v>
+                  <c:v>0.88777072002518509</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.86476564940826139</c:v>
+                  <c:v>0.88695250264151726</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.8628598337520732</c:v>
+                  <c:v>0.88204578898137342</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.85791618028864725</c:v>
+                  <c:v>0.87292032332162428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.85391141978894236</c:v>
+                  <c:v>0.87062188135671881</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.84998367229518701</c:v>
+                  <c:v>0.86637118491080445</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.84838879224895414</c:v>
+                  <c:v>0.85983678823155862</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.8393611918184416</c:v>
+                  <c:v>0.85899426387679889</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83597786765511961</c:v>
+                  <c:v>0.84886802645084469</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.82733343725511688</c:v>
+                  <c:v>0.84793650665820308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.82627242780236121</c:v>
+                  <c:v>0.84539630646735864</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.82213405029054498</c:v>
+                  <c:v>0.84082517878917262</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8194969278516796</c:v>
+                  <c:v>0.83589199586823637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.8194969278516796</c:v>
+                  <c:v>0.82419843597796538</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.81527266979634005</c:v>
+                  <c:v>0.82260464056944593</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.80539176482519004</c:v>
+                  <c:v>0.81588328298280632</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.80472637900594512</c:v>
+                  <c:v>0.80985374858655113</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.79893201076812526</c:v>
+                  <c:v>0.80714887500586718</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.791886837262327</c:v>
+                  <c:v>0.79887819507274971</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.784739244181764</c:v>
+                  <c:v>0.79756331329304286</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.77523177473542515</c:v>
+                  <c:v>0.79220332401578553</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.76794797360863576</c:v>
+                  <c:v>0.78813075037758529</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.75723279837731139</c:v>
+                  <c:v>0.78371387291918371</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.75658143580101</c:v>
+                  <c:v>0.77524674389581094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.75604170059644726</c:v>
+                  <c:v>0.76020502405202484</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.75371972013090704</c:v>
+                  <c:v>0.7593569814571558</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.75042222878186171</c:v>
+                  <c:v>0.75832760324228621</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.74445316151387042</c:v>
+                  <c:v>0.73791261782483941</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.73707250639412292</c:v>
+                  <c:v>0.73444661255604982</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.73692179542393499</c:v>
+                  <c:v>0.7226448068835597</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.73564826689067597</c:v>
+                  <c:v>0.71217897703697508</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.72592682559443567</c:v>
+                  <c:v>0.7045100857224067</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.72513209321187944</c:v>
+                  <c:v>0.70321598431126242</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.71840796826185283</c:v>
+                  <c:v>0.69875222617151189</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.70107246920607047</c:v>
+                  <c:v>0.69681064176354857</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.69746153044132031</c:v>
+                  <c:v>0.6885511501103565</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.69558494069881793</c:v>
+                  <c:v>0.68426165288255048</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.67896938132719509</c:v>
+                  <c:v>0.6832585345326494</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.67885287683171192</c:v>
+                  <c:v>0.67568822124425909</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.67578510039460882</c:v>
+                  <c:v>0.67064752428182428</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.66923655214687727</c:v>
+                  <c:v>0.66644016083806135</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.66081384850201108</c:v>
+                  <c:v>0.6616243393139819</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.65510490439223446</c:v>
+                  <c:v>0.65929271461109995</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.65428272295274925</c:v>
+                  <c:v>0.65454229084607563</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.64007149196389657</c:v>
+                  <c:v>0.65328986981549775</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.63276919219153016</c:v>
+                  <c:v>0.64690157213536958</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.62769607307657116</c:v>
+                  <c:v>0.63816513725663304</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.62434340703770608</c:v>
+                  <c:v>0.63571894367451232</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.62225847789000066</c:v>
+                  <c:v>0.62577350008847521</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.59743065967026687</c:v>
+                  <c:v>0.6026395986622447</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.59535091429762721</c:v>
+                  <c:v>0.60079599212501245</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.59302062280242251</c:v>
+                  <c:v>0.5390540852877298</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.59219098316786301</c:v>
+                  <c:v>0.52440381247425838</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.58075315490035373</c:v>
+                  <c:v>0.52048798226268289</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.5785427239843951</c:v>
+                  <c:v>0.51534178735691683</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.57697226278958247</c:v>
+                  <c:v>0.5103785341729975</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.57454952982139251</c:v>
+                  <c:v>0.41066950642696182</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.56633983907233765</c:v>
+                  <c:v>0.4105083401643706</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.55596787532980785</c:v>
+                  <c:v>0.40847828424943255</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.55574777530952257</c:v>
+                  <c:v>0.4055339997962073</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.54627019457359516</c:v>
+                  <c:v>0.40092714488581532</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.53302499247704904</c:v>
+                  <c:v>0.39944514526220182</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.52010043013686624</c:v>
+                  <c:v>0.39890303109274172</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.51355782016629226</c:v>
+                  <c:v>0.39565453858152633</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5088710289530608</c:v>
+                  <c:v>0.37674691810778521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.50332255865774256</c:v>
+                  <c:v>0.37631324428786156</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.50313512129697724</c:v>
+                  <c:v>0.37599168597938304</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.49792906970306555</c:v>
+                  <c:v>0.37267580743208389</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.49174635322473836</c:v>
+                  <c:v>0.37133977874877511</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.48436168439941202</c:v>
+                  <c:v>0.36429364594642483</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.47924056573695367</c:v>
+                  <c:v>0.3635121984915618</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.47897960362222158</c:v>
+                  <c:v>0.36047702794609937</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.45130501152298536</c:v>
+                  <c:v>0.35731293411041914</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.44407957623794264</c:v>
+                  <c:v>0.3570033515131511</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.43255621149758799</c:v>
+                  <c:v>0.3467994247081635</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.42562228401474317</c:v>
+                  <c:v>0.34297144347022607</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.40528322618562024</c:v>
+                  <c:v>0.33805612824479286</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.39510309250823283</c:v>
+                  <c:v>0.3375809298978954</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.36019821520477674</c:v>
+                  <c:v>0.33345004347204066</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.35741691885557486</c:v>
+                  <c:v>0.33175437747876629</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.34296359118411918</c:v>
+                  <c:v>0.33090269950927043</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.34275231512143156</c:v>
+                  <c:v>0.32443152265726632</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.33184497947764441</c:v>
+                  <c:v>0.32303134941720979</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.32572947940843117</c:v>
+                  <c:v>0.32215199783877596</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.31162262960073217</c:v>
+                  <c:v>0.32193791149515077</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.30595747822339281</c:v>
+                  <c:v>0.31732206648296246</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.30389682782030758</c:v>
+                  <c:v>0.31652791837003841</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.28619835652141984</c:v>
+                  <c:v>0.31129582909271492</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.28164786264171265</c:v>
+                  <c:v>1.2673057263336616E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.27183163492377349</c:v>
+                  <c:v>1.0654829995736274E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.25421852486322677</c:v>
+                  <c:v>4.4994388138221127E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.252900096386661</c:v>
+                  <c:v>1.6311706610428575E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.16225349636294939</c:v>
+                  <c:v>1.441810712452356E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.1616437196171315</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.16028567942238164</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.15271111322583703</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.12310576858220135</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.11666480761366355</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.11574403331317366</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.10982327806189983</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.10498259587180848</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>9.3565803618896284E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>9.2152267022231824E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>8.8478470256649303E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.1388394943370948E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5.1135286717098952E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>4.5249936033841046E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4.1834810047584971E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.8568393084780184E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2.8568393084780184E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2.5578818884777234E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2.0966598931955856E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.7430467176832942E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.3748137613680812E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3.9597096634988319E-3</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3.6594624749662881E-3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -604,444 +533,372 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>low_low_0!$E$2:$E$179</c:f>
+              <c:f>low_vlow_0!$E$2:$E$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>1812.7475920375725</c:v>
+                  <c:v>1955.2025117111928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1811.3733900128177</c:v>
+                  <c:v>1954.5312158628151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1806.9520350150374</c:v>
+                  <c:v>1951.6346577029026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.7796030676325</c:v>
+                  <c:v>1949.4485107323376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1803.728729894955</c:v>
+                  <c:v>1948.9532947758225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1802.8868184468527</c:v>
+                  <c:v>1946.3622239148749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1800.0984433744125</c:v>
+                  <c:v>1945.6787577410773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1797.497976649845</c:v>
+                  <c:v>1941.9159553847401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1795.1807594394074</c:v>
+                  <c:v>1939.9988501512198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1793.12635805628</c:v>
+                  <c:v>1938.7036588620526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1791.59888815464</c:v>
+                  <c:v>1937.914599689655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1787.7225732203699</c:v>
+                  <c:v>1935.4616312432927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1784.9205156155324</c:v>
+                  <c:v>1933.4132038449598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1779.5054245293377</c:v>
+                  <c:v>1922.6665923450828</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1778.2112217590175</c:v>
+                  <c:v>1921.8966026140802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1775.6265088605826</c:v>
+                  <c:v>1919.1096866602725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1774.437647046645</c:v>
+                  <c:v>1917.9642488500424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1772.6547520672575</c:v>
+                  <c:v>1917.5615770341151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1771.1213886765227</c:v>
+                  <c:v>1917.2202924128924</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1771.0315529612326</c:v>
+                  <c:v>1916.26797387285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1768.6912179729225</c:v>
+                  <c:v>1912.73536893606</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1766.9945519279026</c:v>
+                  <c:v>1912.41096380418</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1766.3671867465273</c:v>
+                  <c:v>1912.13980035192</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1765.9136105988675</c:v>
+                  <c:v>1911.2005499037975</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1763.8308820177276</c:v>
+                  <c:v>1910.2394285113276</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1763.4592931575276</c:v>
+                  <c:v>1904.8453796619676</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1760.0464546542748</c:v>
+                  <c:v>1904.2215553251301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1759.56388591155</c:v>
+                  <c:v>1903.4619099553049</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1758.0262808498248</c:v>
+                  <c:v>1902.0596864585475</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1757.2701043229324</c:v>
+                  <c:v>1900.8292809504826</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1756.2219293191952</c:v>
+                  <c:v>1900.7005627316701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1755.1683411040351</c:v>
+                  <c:v>1899.1755499569301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1754.1085647999525</c:v>
+                  <c:v>1898.0724781740751</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1753.1483424321675</c:v>
+                  <c:v>1896.1945994799601</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1751.6567456396624</c:v>
+                  <c:v>1894.8429538645651</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1750.9679738820676</c:v>
+                  <c:v>1894.7722457955224</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1750.4227081073025</c:v>
+                  <c:v>1894.2842313047549</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1749.87922399938</c:v>
+                  <c:v>1893.1784929027576</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1748.4489843786075</c:v>
+                  <c:v>1892.58117122772</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1747.7007962161874</c:v>
+                  <c:v>1891.57821284427</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1747.7007962161874</c:v>
+                  <c:v>1889.5842651076575</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1747.1644199821799</c:v>
+                  <c:v>1889.2469422109025</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1745.7432428655375</c:v>
+                  <c:v>1887.0300364695299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1741.9109414484076</c:v>
+                  <c:v>1886.6170510803152</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1740.3001539437926</c:v>
+                  <c:v>1884.3298005202573</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1740.0560234485276</c:v>
+                  <c:v>1882.4896176690152</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1739.584597224255</c:v>
+                  <c:v>1881.6890986989299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1738.3027737183825</c:v>
+                  <c:v>1880.3872814273325</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1737.1288715820451</c:v>
+                  <c:v>1879.5783140759027</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1736.9324664949352</c:v>
+                  <c:v>1877.8613878099575</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1736.5845504485699</c:v>
+                  <c:v>1877.2375316861699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1735.3049960983574</c:v>
+                  <c:v>1876.36333973199</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1733.45139766578</c:v>
+                  <c:v>1872.1660701754574</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1733.3746417480124</c:v>
+                  <c:v>1871.8538396782951</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1733.0363571938549</c:v>
+                  <c:v>1871.68457599014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1732.7172058142851</c:v>
+                  <c:v>1870.5106751862224</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1731.5653441487775</c:v>
+                  <c:v>1869.0975715041825</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1730.6949680933026</c:v>
+                  <c:v>1854.138817901895</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1728.4072678095299</c:v>
+                  <c:v>1853.4969628312126</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1728.1068859202023</c:v>
+                  <c:v>1852.8799742690851</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1727.2805435793675</c:v>
+                  <c:v>1847.7536792408926</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1725.9843403938901</c:v>
+                  <c:v>1825.9515393882075</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1724.0910263040901</c:v>
+                  <c:v>1825.1789503103698</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1719.280717163115</c:v>
+                  <c:v>1820.361566734905</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1707.484893004515</c:v>
+                  <c:v>1819.7386827248924</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1707.3861031005376</c:v>
+                  <c:v>1813.4738487742575</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1704.4949169916349</c:v>
+                  <c:v>1811.6127749570026</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1703.5939223944799</c:v>
+                  <c:v>1810.3010030883149</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1695.98545499802</c:v>
+                  <c:v>1809.911365811925</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1695.0279044455651</c:v>
+                  <c:v>1808.9505982862249</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1694.792060564595</c:v>
+                  <c:v>1808.7204033975825</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1689.0451609697625</c:v>
+                  <c:v>1808.16749949669</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1686.020582134395</c:v>
+                  <c:v>1807.5635564879549</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1685.5634934772049</c:v>
+                  <c:v>1806.7577049292499</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1684.459043753385</c:v>
+                  <c:v>1805.7113858631224</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1683.5891381798999</c:v>
+                  <c:v>1804.82611133049</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1682.8559936996999</c:v>
+                  <c:v>1804.323816495855</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1682.0828761182152</c:v>
+                  <c:v>1800.6115085028075</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1677.240700733865</c:v>
+                  <c:v>1799.9830843017226</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1676.7250647758626</c:v>
+                  <c:v>1799.19034204749</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1676.5763900761424</c:v>
+                  <c:v>1797.7929659374574</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1667.4485822449424</c:v>
+                  <c:v>1797.3898798041</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1667.3644397014275</c:v>
+                  <c:v>1795.1963450022677</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1667.2643713732875</c:v>
+                  <c:v>1794.6703454488127</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1667.0325309512025</c:v>
+                  <c:v>1794.1492699113674</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1666.3833026176951</c:v>
+                  <c:v>1793.8745118438974</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1666.0676831691376</c:v>
+                  <c:v>1793.5073687344052</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1663.6729430145974</c:v>
+                  <c:v>1792.6286325363751</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1663.4094414891524</c:v>
+                  <c:v>1792.2280419737849</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1663.3752705102675</c:v>
+                  <c:v>1791.6144912386924</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1661.8330465584299</c:v>
+                  <c:v>1790.5964727329026</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1661.7461600767276</c:v>
+                  <c:v>1790.4828035058974</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1660.6632795501</c:v>
+                  <c:v>1789.8014891103526</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1660.2830608490849</c:v>
+                  <c:v>1789.08576886842</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1658.6970919500225</c:v>
+                  <c:v>1788.6814759777126</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1657.2283283696027</c:v>
+                  <c:v>1787.8778717566352</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1656.176821090455</c:v>
+                  <c:v>1787.57029613895</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1656.0748035075901</c:v>
+                  <c:v>1787.4140600507101</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1655.4670954666124</c:v>
+                  <c:v>1787.0815097252625</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1653.6320934866849</c:v>
+                  <c:v>1786.7640605960175</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1652.7080290792276</c:v>
+                  <c:v>1786.5701732401501</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1650.7252310868973</c:v>
+                  <c:v>1786.508305065345</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1649.3195236910626</c:v>
+                  <c:v>1786.134971362125</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1648.9555710261825</c:v>
+                  <c:v>1786.0184369850226</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1646.3079556200073</c:v>
+                  <c:v>1785.87449023101</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1644.12737386611</c:v>
+                  <c:v>1785.4157981790825</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1643.9865878972175</c:v>
+                  <c:v>1785.1375568405924</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1642.4701932510077</c:v>
+                  <c:v>1783.4556910776676</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1642.4339778379349</c:v>
+                  <c:v>1783.0137204539476</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1640.6428024868849</c:v>
+                  <c:v>1782.8777799511049</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1639.74740133459</c:v>
+                  <c:v>1781.8707393541576</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1639.5456331704374</c:v>
+                  <c:v>1781.4973951645202</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1638.3828760282649</c:v>
+                  <c:v>1781.3073021033676</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1637.775755968665</c:v>
+                  <c:v>1780.6564215925425</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1636.2076564461677</c:v>
+                  <c:v>1779.6059353535099</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1635.5607142125975</c:v>
+                  <c:v>1779.0038949951149</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1634.21750333358</c:v>
+                  <c:v>1778.62532409153</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1632.939508773555</c:v>
+                  <c:v>1778.0411456173276</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1631.7540729006973</c:v>
+                  <c:v>1777.536425673195</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1631.0974698221025</c:v>
+                  <c:v>1777.4079662828176</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1623.26926907145</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1622.0716085624026</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1620.4634496522826</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1619.7493943852326</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1618.407552425175</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1616.63084679537</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1613.4020923715625</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1613.2103938174125</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1611.8782180242151</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1611.3874544640075</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1610.2384810232552</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1610.1858631016025</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1605.2201540576175</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1602.0515611528124</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1600.1102677240801</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1596.6592764767399</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1596.6592764767399</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1595.7892124241675</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1595.2877209828125</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1594.1152370622076</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1593.1714285050225</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1592.5470159890626</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1592.32199593938</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1590.767820104445</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1590.767820104445</c:v>
+                  <c:v>1775.9549082912977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,11 +913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-463528480"/>
-        <c:axId val="-463518688"/>
+        <c:axId val="-146495680"/>
+        <c:axId val="-274878800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-463528480"/>
+        <c:axId val="-146495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1179,12 +1036,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463518688"/>
+        <c:crossAx val="-274878800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-463518688"/>
+        <c:axId val="-274878800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1154,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463528480"/>
+        <c:crossAx val="-146495680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1393,416 +1250,443 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>low_med_0!$D$2:$D$162</c:f>
+              <c:f>low_low_0!$D$2:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="161"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99974715494960609</c:v>
+                  <c:v>0.98392717149409659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99865107076948179</c:v>
+                  <c:v>0.98169586518149254</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99125950580294275</c:v>
+                  <c:v>0.97486867001953315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98854687709119005</c:v>
+                  <c:v>0.97218046509450706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98679446301993956</c:v>
+                  <c:v>0.97064477696217444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9844629158161402</c:v>
+                  <c:v>0.96281657625603656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98315261238402196</c:v>
+                  <c:v>0.9600969430209908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97152953465802616</c:v>
+                  <c:v>0.95249328236537911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96895651239301761</c:v>
+                  <c:v>0.94750385175828455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96658726401817552</c:v>
+                  <c:v>0.93184919146848866</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9620056329532175</c:v>
+                  <c:v>0.92333820397888078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95590185340344747</c:v>
+                  <c:v>0.91329614293096684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95509081867106926</c:v>
+                  <c:v>0.90989582260872059</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95075480010941293</c:v>
+                  <c:v>0.90749447626409296</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94859976337634366</c:v>
+                  <c:v>0.90619468275833426</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94821353096950201</c:v>
+                  <c:v>0.90262913279066548</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9455697181346896</c:v>
+                  <c:v>0.90223098510080146</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94255875719046855</c:v>
+                  <c:v>0.89450439516264035</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93836507440323891</c:v>
+                  <c:v>0.89264819328259259</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93478558791474897</c:v>
+                  <c:v>0.89081701723474993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92535151300315943</c:v>
+                  <c:v>0.88982808672224967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92136931569638558</c:v>
+                  <c:v>0.88819275407258591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91855945904045389</c:v>
+                  <c:v>0.88559757911930126</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91010452604623426</c:v>
+                  <c:v>0.88252888947004549</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90379310879927299</c:v>
+                  <c:v>0.87796181531085171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89978737236648321</c:v>
+                  <c:v>0.87378981211649687</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89518811332295078</c:v>
+                  <c:v>0.8732167801448909</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88661564803680759</c:v>
+                  <c:v>0.86476564940826139</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88105181952075562</c:v>
+                  <c:v>0.8628598337520732</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.87707965307365876</c:v>
+                  <c:v>0.85791618028864725</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.87373706808038798</c:v>
+                  <c:v>0.85391141978894236</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.87123224227684204</c:v>
+                  <c:v>0.84998367229518701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.86938010181018999</c:v>
+                  <c:v>0.84838879224895414</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.86543908793027624</c:v>
+                  <c:v>0.8393611918184416</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85550740848001861</c:v>
+                  <c:v>0.83597786765511961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.85192225810171052</c:v>
+                  <c:v>0.82733343725511688</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.84968550335706639</c:v>
+                  <c:v>0.82627242780236121</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.84645342278366031</c:v>
+                  <c:v>0.82213405029054498</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.84323176027073665</c:v>
+                  <c:v>0.8194969278516796</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.83825082858293731</c:v>
+                  <c:v>0.8194969278516796</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.83385241299922408</c:v>
+                  <c:v>0.81527266979634005</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8289388323643756</c:v>
+                  <c:v>0.80539176482519004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.82364471435813147</c:v>
+                  <c:v>0.80472637900594512</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81677803484726774</c:v>
+                  <c:v>0.79893201076812526</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.81219864214544479</c:v>
+                  <c:v>0.791886837262327</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.80667530850817915</c:v>
+                  <c:v>0.784739244181764</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.79984156725146138</c:v>
+                  <c:v>0.77523177473542515</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7937008135789676</c:v>
+                  <c:v>0.76794797360863576</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.77951582621216908</c:v>
+                  <c:v>0.75723279837731139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.77773192774765765</c:v>
+                  <c:v>0.75658143580101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.76046831955972183</c:v>
+                  <c:v>0.75604170059644726</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.75443668078905612</c:v>
+                  <c:v>0.75371972013090704</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.75070937462146903</c:v>
+                  <c:v>0.75042222878186171</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.74490540156199236</c:v>
+                  <c:v>0.74445316151387042</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.74073720944495713</c:v>
+                  <c:v>0.73707250639412292</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.73719492768443684</c:v>
+                  <c:v>0.73692179542393499</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.73493689676259366</c:v>
+                  <c:v>0.73564826689067597</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.72097713987887935</c:v>
+                  <c:v>0.72592682559443567</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.71318892069496609</c:v>
+                  <c:v>0.72513209321187944</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.71072378503523392</c:v>
+                  <c:v>0.71840796826185283</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.70053570828920553</c:v>
+                  <c:v>0.70107246920607047</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.68114065396667389</c:v>
+                  <c:v>0.69746153044132031</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.68050981058751614</c:v>
+                  <c:v>0.69558494069881793</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.67258217217784144</c:v>
+                  <c:v>0.67896938132719509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.65939079838172121</c:v>
+                  <c:v>0.67885287683171192</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.6527032494427587</c:v>
+                  <c:v>0.67578510039460882</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.64124746235510099</c:v>
+                  <c:v>0.66923655214687727</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.63606717971078564</c:v>
+                  <c:v>0.66081384850201108</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.6276918309166537</c:v>
+                  <c:v>0.65510490439223446</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.6186985833169979</c:v>
+                  <c:v>0.65428272295274925</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.61275855062648543</c:v>
+                  <c:v>0.64007149196389657</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.60329605552521415</c:v>
+                  <c:v>0.63276919219153016</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.59274400839772945</c:v>
+                  <c:v>0.62769607307657116</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.58370896158130603</c:v>
+                  <c:v>0.62434340703770608</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.57901084440592987</c:v>
+                  <c:v>0.62225847789000066</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.57055578908758386</c:v>
+                  <c:v>0.59743065967026687</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.56404897059623205</c:v>
+                  <c:v>0.59535091429762721</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.55854761265716857</c:v>
+                  <c:v>0.59302062280242251</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.55504383753558162</c:v>
+                  <c:v>0.59219098316786301</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.54808297983418419</c:v>
+                  <c:v>0.58075315490035373</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.53679364488585823</c:v>
+                  <c:v>0.5785427239843951</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.53421886838891741</c:v>
+                  <c:v>0.57697226278958247</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.52822402189659534</c:v>
+                  <c:v>0.57454952982139251</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.52050963722537202</c:v>
+                  <c:v>0.56633983907233765</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.51232675259306182</c:v>
+                  <c:v>0.55596787532980785</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.50865136034510428</c:v>
+                  <c:v>0.55574777530952257</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.50644676689006884</c:v>
+                  <c:v>0.54627019457359516</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.50160110788441059</c:v>
+                  <c:v>0.53302499247704904</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.49023237194830527</c:v>
+                  <c:v>0.52010043013686624</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.48221051767852829</c:v>
+                  <c:v>0.51355782016629226</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.47924720269770177</c:v>
+                  <c:v>0.5088710289530608</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.47143819015150634</c:v>
+                  <c:v>0.50332255865774256</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.46714105230662684</c:v>
+                  <c:v>0.50313512129697724</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.45576033537928506</c:v>
+                  <c:v>0.49792906970306555</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.4498993098816404</c:v>
+                  <c:v>0.49174635322473836</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.44273269806792959</c:v>
+                  <c:v>0.48436168439941202</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.43561811366973974</c:v>
+                  <c:v>0.47924056573695367</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.42977800883038797</c:v>
+                  <c:v>0.47897960362222158</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.42653093477402371</c:v>
+                  <c:v>0.45130501152298536</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.41273833064241588</c:v>
+                  <c:v>0.44407957623794264</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.40376808297673417</c:v>
+                  <c:v>0.43255621149758799</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.39873374052350224</c:v>
+                  <c:v>0.42562228401474317</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.39373890398255273</c:v>
+                  <c:v>0.40528322618562024</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.39063337392925734</c:v>
+                  <c:v>0.39510309250823283</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.38601306211088887</c:v>
+                  <c:v>0.36019821520477674</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.38050625847530106</c:v>
+                  <c:v>0.35741691885557486</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.36932267669652413</c:v>
+                  <c:v>0.34296359118411918</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.36679658493218925</c:v>
+                  <c:v>0.34275231512143156</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.36315143397770938</c:v>
+                  <c:v>0.33184497947764441</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.36167484760285112</c:v>
+                  <c:v>0.32572947940843117</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.35682388234204243</c:v>
+                  <c:v>0.31162262960073217</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.34743294652013201</c:v>
+                  <c:v>0.30595747822339281</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.33733819828444178</c:v>
+                  <c:v>0.30389682782030758</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.33031685665778515</c:v>
+                  <c:v>0.28619835652141984</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.32642578495255264</c:v>
+                  <c:v>0.28164786264171265</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.32245789517738777</c:v>
+                  <c:v>0.27183163492377349</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.31877293299808612</c:v>
+                  <c:v>0.25421852486322677</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.31657312828805895</c:v>
+                  <c:v>0.252900096386661</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.31345804522339044</c:v>
+                  <c:v>0.16225349636294939</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.30547415340627398</c:v>
+                  <c:v>0.1616437196171315</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.30076347899519845</c:v>
+                  <c:v>0.16028567942238164</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.29796849109936902</c:v>
+                  <c:v>0.15271111322583703</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.29031281193079972</c:v>
+                  <c:v>0.12310576858220135</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.28761161039640137</c:v>
+                  <c:v>0.11666480761366355</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.28629451992629001</c:v>
+                  <c:v>0.11574403331317366</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.27911584596681294</c:v>
+                  <c:v>0.10982327806189983</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.27601925084883128</c:v>
+                  <c:v>0.10498259587180848</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.2642428287077408</c:v>
+                  <c:v>9.3565803618896284E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.25653374878150181</c:v>
+                  <c:v>9.2152267022231824E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.7904583431936347E-2</c:v>
+                  <c:v>8.8478470256649303E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.6996591441792911E-2</c:v>
+                  <c:v>5.1388394943370948E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.610858137766334E-2</c:v>
+                  <c:v>5.1135286717098952E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.277451287004684E-2</c:v>
+                  <c:v>4.5249936033841046E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.9821545297494694E-2</c:v>
+                  <c:v>4.1834810047584971E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>2.8568393084780184E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.8568393084780184E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.5578818884777234E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0966598931955856E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.7430467176832942E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.3748137613680812E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.9597096634988319E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.6594624749662881E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1810,417 +1694,444 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>low_med_0!$E$2:$E$162</c:f>
+              <c:f>low_low_0!$E$2:$E$179</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="161"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>5409.7890355793097</c:v>
+                  <c:v>1812.7475920375725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5409.1691322822298</c:v>
+                  <c:v>1811.3733900128177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5374.57383925248</c:v>
+                  <c:v>1806.9520350150374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5361.7315167707693</c:v>
+                  <c:v>1805.7796030676325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5356.3406308182894</c:v>
+                  <c:v>1803.728729894955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5351.1034307307</c:v>
+                  <c:v>1802.8868184468527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5336.6293299736199</c:v>
+                  <c:v>1800.0984433744125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5334.1535299253101</c:v>
+                  <c:v>1797.497976649845</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5323.9194426754493</c:v>
+                  <c:v>1795.1807594394074</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5321.8406063254497</c:v>
+                  <c:v>1793.12635805628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5314.5773415415506</c:v>
+                  <c:v>1791.59888815464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5306.3557559280298</c:v>
+                  <c:v>1787.7225732203699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5299.08124526757</c:v>
+                  <c:v>1784.9205156155324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5280.7388437525497</c:v>
+                  <c:v>1779.5054245293377</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5277.1549929314697</c:v>
+                  <c:v>1778.2112217590175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5274.8828946151198</c:v>
+                  <c:v>1775.6265088605826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5274.2874950073001</c:v>
+                  <c:v>1774.437647046645</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5234.5964087748298</c:v>
+                  <c:v>1772.6547520672575</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5220.4713435903295</c:v>
+                  <c:v>1771.1213886765227</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5214.3110459970903</c:v>
+                  <c:v>1771.0315529612326</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5208.87640894377</c:v>
+                  <c:v>1768.6912179729225</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5202.1973418023099</c:v>
+                  <c:v>1766.9945519279026</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5198.2071123678297</c:v>
+                  <c:v>1766.3671867465273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5189.0183963678401</c:v>
+                  <c:v>1765.9136105988675</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5185.0289359703402</c:v>
+                  <c:v>1763.8308820177276</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5182.1678192669706</c:v>
+                  <c:v>1763.4592931575276</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5173.3195251896395</c:v>
+                  <c:v>1760.0464546542748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5171.5649726602205</c:v>
+                  <c:v>1759.56388591155</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5168.6611504180801</c:v>
+                  <c:v>1758.0262808498248</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5164.6765057370403</c:v>
+                  <c:v>1757.2701043229324</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5162.74871569683</c:v>
+                  <c:v>1756.2219293191952</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5156.7914056304098</c:v>
+                  <c:v>1755.1683411040351</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5152.8088122068402</c:v>
+                  <c:v>1754.1085647999525</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5149.0465497442801</c:v>
+                  <c:v>1753.1483424321675</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5147.5444266036293</c:v>
+                  <c:v>1751.6567456396624</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5139.1320987639001</c:v>
+                  <c:v>1750.9679738820676</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5134.3293191532302</c:v>
+                  <c:v>1750.4227081073025</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5130.5129972572204</c:v>
+                  <c:v>1749.87922399938</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5122.6017684585904</c:v>
+                  <c:v>1748.4489843786075</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5120.2323636276897</c:v>
+                  <c:v>1747.7007962161874</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5114.8075039497298</c:v>
+                  <c:v>1747.7007962161874</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5112.1366909721401</c:v>
+                  <c:v>1747.1644199821799</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5109.4865773321199</c:v>
+                  <c:v>1745.7432428655375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5103.2014170999</c:v>
+                  <c:v>1741.9109414484076</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5100.8057650862102</c:v>
+                  <c:v>1740.3001539437926</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5093.85796657425</c:v>
+                  <c:v>1740.0560234485276</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5088.4364581952404</c:v>
+                  <c:v>1739.584597224255</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5084.1598846065599</c:v>
+                  <c:v>1738.3027737183825</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5078.9253112070101</c:v>
+                  <c:v>1737.1288715820451</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5073.7232879230196</c:v>
+                  <c:v>1736.9324664949352</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5071.4815334308496</c:v>
+                  <c:v>1736.5845504485699</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5067.9359502179695</c:v>
+                  <c:v>1735.3049960983574</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5066.5867630906205</c:v>
+                  <c:v>1733.45139766578</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5061.2992902371707</c:v>
+                  <c:v>1733.3746417480124</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5059.7761860745795</c:v>
+                  <c:v>1733.0363571938549</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5059.6463514923998</c:v>
+                  <c:v>1732.7172058142851</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5058.6286867599601</c:v>
+                  <c:v>1731.5653441487775</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5054.7279596961898</c:v>
+                  <c:v>1730.6949680933026</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5051.5822278982796</c:v>
+                  <c:v>1728.4072678095299</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5048.3955304104602</c:v>
+                  <c:v>1728.1068859202023</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5046.1421983703694</c:v>
+                  <c:v>1727.2805435793675</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5042.4653039547302</c:v>
+                  <c:v>1725.9843403938901</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5041.7184499805408</c:v>
+                  <c:v>1724.0910263040901</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5039.2743876631503</c:v>
+                  <c:v>1719.280717163115</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5035.0868397674403</c:v>
+                  <c:v>1707.484893004515</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5034.1553410243796</c:v>
+                  <c:v>1707.3861031005376</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5030.12196350874</c:v>
+                  <c:v>1704.4949169916349</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5027.3201778032999</c:v>
+                  <c:v>1703.5939223944799</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5024.8697601163203</c:v>
+                  <c:v>1695.98545499802</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5023.1042700858598</c:v>
+                  <c:v>1695.0279044455651</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5022.46986855042</c:v>
+                  <c:v>1694.792060564595</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5019.9998933386805</c:v>
+                  <c:v>1689.0451609697625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5016.0902700197994</c:v>
+                  <c:v>1686.020582134395</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5014.3324894551297</c:v>
+                  <c:v>1685.5634934772049</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5009.3269159057199</c:v>
+                  <c:v>1684.459043753385</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5008.0930028508301</c:v>
+                  <c:v>1683.5891381798999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5006.3449419265498</c:v>
+                  <c:v>1682.8559936996999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5003.8340551593601</c:v>
+                  <c:v>1682.0828761182152</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5001.8608504641898</c:v>
+                  <c:v>1677.240700733865</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4999.7043063602696</c:v>
+                  <c:v>1676.7250647758626</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4996.8647800959898</c:v>
+                  <c:v>1676.5763900761424</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4994.0781036690005</c:v>
+                  <c:v>1667.4485822449424</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4993.2326883321002</c:v>
+                  <c:v>1667.3644397014275</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4991.0115547410005</c:v>
+                  <c:v>1667.2643713732875</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4988.60073577602</c:v>
+                  <c:v>1667.0325309512025</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4986.8062004366102</c:v>
+                  <c:v>1666.3833026176951</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4984.0473435364502</c:v>
+                  <c:v>1666.0676831691376</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4982.7170430666893</c:v>
+                  <c:v>1663.6729430145974</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4980.8143411932906</c:v>
+                  <c:v>1663.4094414891524</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4977.3293620828499</c:v>
+                  <c:v>1663.3752705102675</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4973.5418511062398</c:v>
+                  <c:v>1661.8330465584299</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4972.9667231203503</c:v>
+                  <c:v>1661.7461600767276</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4971.7943991816001</c:v>
+                  <c:v>1660.6632795501</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4970.7647867967298</c:v>
+                  <c:v>1660.2830608490849</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4963.0923494242797</c:v>
+                  <c:v>1658.6970919500225</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4959.1145080533297</c:v>
+                  <c:v>1657.2283283696027</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4955.8603637325295</c:v>
+                  <c:v>1656.176821090455</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4954.95059977455</c:v>
+                  <c:v>1656.0748035075901</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4950.8398748808304</c:v>
+                  <c:v>1655.4670954666124</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4948.4255259803103</c:v>
+                  <c:v>1653.6320934866849</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4946.0862308386795</c:v>
+                  <c:v>1652.7080290792276</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4944.3647492472301</c:v>
+                  <c:v>1650.7252310868973</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4941.5137151605804</c:v>
+                  <c:v>1649.3195236910626</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4938.6917094468299</c:v>
+                  <c:v>1648.9555710261825</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4937.9157099738595</c:v>
+                  <c:v>1646.3079556200073</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4934.5929746963093</c:v>
+                  <c:v>1644.12737386611</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4930.3929007844999</c:v>
+                  <c:v>1643.9865878972175</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4925.8710133310706</c:v>
+                  <c:v>1642.4701932510077</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4924.6787292766494</c:v>
+                  <c:v>1642.4339778379349</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4921.11440716176</c:v>
+                  <c:v>1640.6428024868849</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4918.6520038592398</c:v>
+                  <c:v>1639.74740133459</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4916.6813423450103</c:v>
+                  <c:v>1639.5456331704374</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4912.6524234408898</c:v>
+                  <c:v>1638.3828760282649</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4909.4474131725001</c:v>
+                  <c:v>1637.775755968665</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4903.4455349826603</c:v>
+                  <c:v>1636.2076564461677</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4900.9889832632098</c:v>
+                  <c:v>1635.5607142125975</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4897.6919132711701</c:v>
+                  <c:v>1634.21750333358</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4894.7517278777095</c:v>
+                  <c:v>1632.939508773555</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4893.4327355711703</c:v>
+                  <c:v>1631.7540729006973</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4889.5078443619805</c:v>
+                  <c:v>1631.0974698221025</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4887.8169848964299</c:v>
+                  <c:v>1623.26926907145</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4884.8773314015907</c:v>
+                  <c:v>1622.0716085624026</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4880.5643887860297</c:v>
+                  <c:v>1620.4634496522826</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4878.8803510375201</c:v>
+                  <c:v>1619.7493943852326</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4874.7704705728502</c:v>
+                  <c:v>1618.407552425175</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4872.7568000759102</c:v>
+                  <c:v>1616.63084679537</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4869.7254790799398</c:v>
+                  <c:v>1613.4020923715625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4868.1911587171799</c:v>
+                  <c:v>1613.2103938174125</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4862.7661491807603</c:v>
+                  <c:v>1611.8782180242151</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4861.6127634387303</c:v>
+                  <c:v>1611.3874544640075</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4859.3058246723303</c:v>
+                  <c:v>1610.2384810232552</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4856.0697435897891</c:v>
+                  <c:v>1610.1858631016025</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>4852.7954250584999</c:v>
+                  <c:v>1605.2201540576175</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4851.0135507684599</c:v>
+                  <c:v>1602.0515611528124</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4850.2481209001098</c:v>
+                  <c:v>1600.1102677240801</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4849.8059254017599</c:v>
+                  <c:v>1596.6592764767399</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1596.6592764767399</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1595.7892124241675</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1595.2877209828125</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1594.1152370622076</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1593.1714285050225</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1592.5470159890626</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1592.32199593938</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1590.767820104445</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1590.767820104445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,11 +2146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-463525760"/>
-        <c:axId val="-463515968"/>
+        <c:axId val="-146493504"/>
+        <c:axId val="-146494592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-463525760"/>
+        <c:axId val="-146493504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2358,12 +2269,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463515968"/>
+        <c:crossAx val="-146494592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-463515968"/>
+        <c:axId val="-146494592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,7 +2387,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463525760"/>
+        <c:crossAx val="-146493504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,431 +2483,416 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>high_0!$D$2:$D$164</c:f>
+              <c:f>low_med_0!$D$2:$D$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="163"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99974715494960609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99782481876414664</c:v>
+                  <c:v>0.99865107076948179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99040596967401073</c:v>
+                  <c:v>0.99125950580294275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98641810806322294</c:v>
+                  <c:v>0.98854687709119005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98375456501835301</c:v>
+                  <c:v>0.98679446301993956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98056195458908013</c:v>
+                  <c:v>0.9844629158161402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97696417955528714</c:v>
+                  <c:v>0.98315261238402196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97347210208783508</c:v>
+                  <c:v>0.97152953465802616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96519613470926557</c:v>
+                  <c:v>0.96895651239301761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96222580008185865</c:v>
+                  <c:v>0.96658726401817552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96154726438693994</c:v>
+                  <c:v>0.9620056329532175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95764969293973801</c:v>
+                  <c:v>0.95590185340344747</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95269984982261147</c:v>
+                  <c:v>0.95509081867106926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94784292390112657</c:v>
+                  <c:v>0.95075480010941293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94381218444418769</c:v>
+                  <c:v>0.94859976337634366</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9434742893734166</c:v>
+                  <c:v>0.94821353096950201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94023572235011199</c:v>
+                  <c:v>0.9455697181346896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93588562292047839</c:v>
+                  <c:v>0.94255875719046855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93121868275408304</c:v>
+                  <c:v>0.93836507440323891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92979640361106664</c:v>
+                  <c:v>0.93478558791474897</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92780662683859094</c:v>
+                  <c:v>0.92535151300315943</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9246977677946937</c:v>
+                  <c:v>0.92136931569638558</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91682329127793882</c:v>
+                  <c:v>0.91855945904045389</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90564247083290494</c:v>
+                  <c:v>0.91010452604623426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90328667011765451</c:v>
+                  <c:v>0.90379310879927299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.89358174383799749</c:v>
+                  <c:v>0.89978737236648321</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.89202166776960967</c:v>
+                  <c:v>0.89518811332295078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.89154150852734415</c:v>
+                  <c:v>0.88661564803680759</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88677427260461328</c:v>
+                  <c:v>0.88105181952075562</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88548235136339648</c:v>
+                  <c:v>0.87707965307365876</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.87583356033461723</c:v>
+                  <c:v>0.87373706808038798</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.86877128427712347</c:v>
+                  <c:v>0.87123224227684204</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.86534249267794039</c:v>
+                  <c:v>0.86938010181018999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.86303776488146144</c:v>
+                  <c:v>0.86543908793027624</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.85746634765502505</c:v>
+                  <c:v>0.85550740848001861</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.85071538199358843</c:v>
+                  <c:v>0.85192225810171052</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.8451544293568346</c:v>
+                  <c:v>0.84968550335706639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.84289407885725565</c:v>
+                  <c:v>0.84645342278366031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.83968764857830713</c:v>
+                  <c:v>0.84323176027073665</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.83214038534001977</c:v>
+                  <c:v>0.83825082858293731</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.82944418025571209</c:v>
+                  <c:v>0.83385241299922408</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.82433282332895175</c:v>
+                  <c:v>0.8289388323643756</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.82196775260977017</c:v>
+                  <c:v>0.82364471435813147</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.80962127911655302</c:v>
+                  <c:v>0.81677803484726774</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8056366014799814</c:v>
+                  <c:v>0.81219864214544479</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.80509171882407315</c:v>
+                  <c:v>0.80667530850817915</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.80446952727819765</c:v>
+                  <c:v>0.79984156725146138</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.80242899999061001</c:v>
+                  <c:v>0.7937008135789676</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.80093174322723015</c:v>
+                  <c:v>0.77951582621216908</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.796527130830469</c:v>
+                  <c:v>0.77773192774765765</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.79397758268921914</c:v>
+                  <c:v>0.76046831955972183</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.77408384673048736</c:v>
+                  <c:v>0.75443668078905612</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.77376592200765748</c:v>
+                  <c:v>0.75070937462146903</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.77073776919220971</c:v>
+                  <c:v>0.74490540156199236</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.76771104196642626</c:v>
+                  <c:v>0.74073720944495713</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.75861983382502629</c:v>
+                  <c:v>0.73719492768443684</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.75556204833175189</c:v>
+                  <c:v>0.73493689676259366</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.74674479891756795</c:v>
+                  <c:v>0.72097713987887935</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.74369548231319504</c:v>
+                  <c:v>0.71318892069496609</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.73959430887383204</c:v>
+                  <c:v>0.71072378503523392</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.73142684340527264</c:v>
+                  <c:v>0.70053570828920553</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.71367668565351672</c:v>
+                  <c:v>0.68114065396667389</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.70977269807618093</c:v>
+                  <c:v>0.68050981058751614</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.70040615331314082</c:v>
+                  <c:v>0.67258217217784144</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.69718441476576898</c:v>
+                  <c:v>0.65939079838172121</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.69389161167151203</c:v>
+                  <c:v>0.6527032494427587</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.67187523598871957</c:v>
+                  <c:v>0.64124746235510099</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.66399621197179115</c:v>
+                  <c:v>0.63606717971078564</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.66077548848111278</c:v>
+                  <c:v>0.6276918309166537</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.61861330963613292</c:v>
+                  <c:v>0.6186985833169979</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.61553931748530555</c:v>
+                  <c:v>0.61275855062648543</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.61236469692547768</c:v>
+                  <c:v>0.60329605552521415</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.60814995264426619</c:v>
+                  <c:v>0.59274400839772945</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.59463198526111483</c:v>
+                  <c:v>0.58370896158130603</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.56807045059572403</c:v>
+                  <c:v>0.57901084440592987</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.55491315801715191</c:v>
+                  <c:v>0.57055578908758386</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.55211406387993078</c:v>
+                  <c:v>0.56404897059623205</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.52002141796234114</c:v>
+                  <c:v>0.55854761265716857</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.51860583635991664</c:v>
+                  <c:v>0.55504383753558162</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.50813370838480021</c:v>
+                  <c:v>0.54808297983418419</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.49712028106341716</c:v>
+                  <c:v>0.53679364488585823</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.49454546031029883</c:v>
+                  <c:v>0.53421886838891741</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.48040041672438238</c:v>
+                  <c:v>0.52822402189659534</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.47368571268970094</c:v>
+                  <c:v>0.52050963722537202</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.46810463148212317</c:v>
+                  <c:v>0.51232675259306182</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.45518844385462404</c:v>
+                  <c:v>0.50865136034510428</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.44590584744903944</c:v>
+                  <c:v>0.50644676689006884</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.44418537628618471</c:v>
+                  <c:v>0.50160110788441059</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.42751672258748591</c:v>
+                  <c:v>0.49023237194830527</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.42175977988529167</c:v>
+                  <c:v>0.48221051767852829</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.41891113669924518</c:v>
+                  <c:v>0.47924720269770177</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.40392013892709988</c:v>
+                  <c:v>0.47143819015150634</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.39922603396775413</c:v>
+                  <c:v>0.46714105230662684</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.39624714500174452</c:v>
+                  <c:v>0.45576033537928506</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.39074617336789763</c:v>
+                  <c:v>0.4498993098816404</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.38227045166823653</c:v>
+                  <c:v>0.44273269806792959</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.37874433352961984</c:v>
+                  <c:v>0.43561811366973974</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.37080509186545813</c:v>
+                  <c:v>0.42977800883038797</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.36366460031310155</c:v>
+                  <c:v>0.42653093477402371</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.3469231026753466</c:v>
+                  <c:v>0.41273833064241588</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.34014975837102529</c:v>
+                  <c:v>0.40376808297673417</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.33834719782391498</c:v>
+                  <c:v>0.39873374052350224</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.32483136782277139</c:v>
+                  <c:v>0.39373890398255273</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.31286349521242168</c:v>
+                  <c:v>0.39063337392925734</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.31083616773017386</c:v>
+                  <c:v>0.38601306211088887</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.29778172432352118</c:v>
+                  <c:v>0.38050625847530106</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.28291024584534075</c:v>
+                  <c:v>0.36932267669652413</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.2806653235372229</c:v>
+                  <c:v>0.36679658493218925</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.26184919412708851</c:v>
+                  <c:v>0.36315143397770938</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.26037093148500828</c:v>
+                  <c:v>0.36167484760285112</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.25783411582945015</c:v>
+                  <c:v>0.35682388234204243</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.25566318551668976</c:v>
+                  <c:v>0.34743294652013201</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.25411319547763617</c:v>
+                  <c:v>0.33733819828444178</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.24781413459925916</c:v>
+                  <c:v>0.33031685665778515</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.23775403815103735</c:v>
+                  <c:v>0.32642578495255264</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.23318590691480467</c:v>
+                  <c:v>0.32245789517738777</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.23245438331889054</c:v>
+                  <c:v>0.31877293299808612</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.22923426016067203</c:v>
+                  <c:v>0.31657312828805895</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.20338599144263461</c:v>
+                  <c:v>0.31345804522339044</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.20107593453728767</c:v>
+                  <c:v>0.30547415340627398</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.19924198752346822</c:v>
+                  <c:v>0.30076347899519845</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.19508062345517591</c:v>
+                  <c:v>0.29796849109936902</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.18559390891846136</c:v>
+                  <c:v>0.29031281193079972</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.16977867504677652</c:v>
+                  <c:v>0.28761161039640137</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.13938420226743709</c:v>
+                  <c:v>0.28629451992629001</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.13509497002628384</c:v>
+                  <c:v>0.27911584596681294</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.13100302214017995</c:v>
+                  <c:v>0.27601925084883128</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.1270067807855165</c:v>
+                  <c:v>0.2642428287077408</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.12399509842535048</c:v>
+                  <c:v>0.25653374878150181</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.11486031791540854</c:v>
+                  <c:v>7.7904583431936347E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.11203170842806137</c:v>
+                  <c:v>7.6996591441792911E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.10901145591838381</c:v>
+                  <c:v>7.610858137766334E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.10434239340929742</c:v>
+                  <c:v>7.277451287004684E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.10265577017800261</c:v>
+                  <c:v>6.9821545297494694E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.10079799323989093</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2.031523647817568E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9.8415250115562944E-3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2.0975457040524182E-4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3004,432 +2900,417 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>high_0!$E$2:$E$164</c:f>
+              <c:f>low_med_0!$E$2:$E$162</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="163"/>
+                <c:ptCount val="161"/>
                 <c:pt idx="0">
-                  <c:v>10085.54117965128</c:v>
+                  <c:v>5409.7890355793097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10085.54117965128</c:v>
+                  <c:v>5409.1691322822298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10003.311410640541</c:v>
+                  <c:v>5374.57383925248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9998.1262033122603</c:v>
+                  <c:v>5361.7315167707693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9962.9808921448202</c:v>
+                  <c:v>5356.3406308182894</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9945.16856753514</c:v>
+                  <c:v>5351.1034307307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9936.8146404823801</c:v>
+                  <c:v>5336.6293299736199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9921.0037787240999</c:v>
+                  <c:v>5334.1535299253101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9914.6436218737799</c:v>
+                  <c:v>5323.9194426754493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9908.2639075706993</c:v>
+                  <c:v>5321.8406063254497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9884.5712087449192</c:v>
+                  <c:v>5314.5773415415506</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9865.6620217981199</c:v>
+                  <c:v>5306.3557559280298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9855.5346469940396</c:v>
+                  <c:v>5299.08124526757</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9846.099365944081</c:v>
+                  <c:v>5280.7388437525497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9830.1343926955196</c:v>
+                  <c:v>5277.1549929314697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9826.5723431793595</c:v>
+                  <c:v>5274.8828946151198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9824.7616420099803</c:v>
+                  <c:v>5274.2874950073001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9813.1815561526801</c:v>
+                  <c:v>5234.5964087748298</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9809.7979241031589</c:v>
+                  <c:v>5220.4713435903295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9803.52218313714</c:v>
+                  <c:v>5214.3110459970903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9799.0499399548789</c:v>
+                  <c:v>5208.87640894377</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9792.5750979895802</c:v>
+                  <c:v>5202.1973418023099</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9786.5670629298602</c:v>
+                  <c:v>5198.2071123678297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9779.2773533356813</c:v>
+                  <c:v>5189.0183963678401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9774.6665181445205</c:v>
+                  <c:v>5185.0289359703402</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9770.4414938907594</c:v>
+                  <c:v>5182.1678192669706</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9766.4558557598393</c:v>
+                  <c:v>5173.3195251896395</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9761.9684549647791</c:v>
+                  <c:v>5171.5649726602205</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9758.5799089496395</c:v>
+                  <c:v>5168.6611504180801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9758.0921595384607</c:v>
+                  <c:v>5164.6765057370403</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9749.7391349126392</c:v>
+                  <c:v>5162.74871569683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9734.4622467375611</c:v>
+                  <c:v>5156.7914056304098</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9724.9169534608791</c:v>
+                  <c:v>5152.8088122068402</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9718.0478031739203</c:v>
+                  <c:v>5149.0465497442801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9713.0823509824186</c:v>
+                  <c:v>5147.5444266036293</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9704.5605236697593</c:v>
+                  <c:v>5139.1320987639001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9694.1975846216392</c:v>
+                  <c:v>5134.3293191532302</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9687.9489655016987</c:v>
+                  <c:v>5130.5129972572204</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9679.2218678349</c:v>
+                  <c:v>5122.6017684585904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9675.6834434165394</c:v>
+                  <c:v>5120.2323636276897</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9662.1013524584414</c:v>
+                  <c:v>5114.8075039497298</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9657.1927451893189</c:v>
+                  <c:v>5112.1366909721401</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9648.28770070266</c:v>
+                  <c:v>5109.4865773321199</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9645.5131678201215</c:v>
+                  <c:v>5103.2014170999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9644.2881611232006</c:v>
+                  <c:v>5100.8057650862102</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9642.6962224002</c:v>
+                  <c:v>5093.85796657425</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9642.0764003362201</c:v>
+                  <c:v>5088.4364581952404</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9637.2022868595013</c:v>
+                  <c:v>5084.1598846065599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9632.1447878727013</c:v>
+                  <c:v>5078.9253112070101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9625.0948458865205</c:v>
+                  <c:v>5073.7232879230196</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9619.9957477609205</c:v>
+                  <c:v>5071.4815334308496</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9608.4600425011213</c:v>
+                  <c:v>5067.9359502179695</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9605.947783330801</c:v>
+                  <c:v>5066.5867630906205</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9601.5710660680797</c:v>
+                  <c:v>5061.2992902371707</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9598.6538509946404</c:v>
+                  <c:v>5059.7761860745795</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9589.4244740467202</c:v>
+                  <c:v>5059.6463514923998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9580.7394817068598</c:v>
+                  <c:v>5058.6286867599601</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9577.9418175887404</c:v>
+                  <c:v>5054.7279596961898</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9574.1829050734195</c:v>
+                  <c:v>5051.5822278982796</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9569.6751319070991</c:v>
+                  <c:v>5048.3955304104602</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9566.6060094397799</c:v>
+                  <c:v>5046.1421983703694</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>9559.6656692250599</c:v>
+                  <c:v>5042.4653039547302</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9554.7281346158397</c:v>
+                  <c:v>5041.7184499805408</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9549.84629404728</c:v>
+                  <c:v>5039.2743876631503</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9546.4507997516994</c:v>
+                  <c:v>5035.0868397674403</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9541.1003838079196</c:v>
+                  <c:v>5034.1553410243796</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9537.4270744723199</c:v>
+                  <c:v>5030.12196350874</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9534.4943551726792</c:v>
+                  <c:v>5027.3201778032999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9530.3867385212998</c:v>
+                  <c:v>5024.8697601163203</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9525.790682995681</c:v>
+                  <c:v>5023.1042700858598</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9512.2174973584788</c:v>
+                  <c:v>5022.46986855042</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9507.0142164101999</c:v>
+                  <c:v>5019.9998933386805</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9503.0705863333806</c:v>
+                  <c:v>5016.0902700197994</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9500.8606355950797</c:v>
+                  <c:v>5014.3324894551297</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9494.5497441519001</c:v>
+                  <c:v>5009.3269159057199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9486.5275386471585</c:v>
+                  <c:v>5008.0930028508301</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9482.0965397521795</c:v>
+                  <c:v>5006.3449419265498</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9477.5494523125799</c:v>
+                  <c:v>5003.8340551593601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9471.9104863133998</c:v>
+                  <c:v>5001.8608504641898</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9465.8680454883615</c:v>
+                  <c:v>4999.7043063602696</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9463.4276277042009</c:v>
+                  <c:v>4996.8647800959898</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9458.1211757900401</c:v>
+                  <c:v>4994.0781036690005</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9455.6415508370992</c:v>
+                  <c:v>4993.2326883321002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9449.1378028759209</c:v>
+                  <c:v>4991.0115547410005</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9442.5146174180991</c:v>
+                  <c:v>4988.60073577602</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9437.4333238391391</c:v>
+                  <c:v>4986.8062004366102</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9435.9690140125203</c:v>
+                  <c:v>4984.0473435364502</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9429.1243144146611</c:v>
+                  <c:v>4982.7170430666893</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9426.6793431798615</c:v>
+                  <c:v>4980.8143411932906</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9425.0908331323208</c:v>
+                  <c:v>4977.3293620828499</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9422.1126933507585</c:v>
+                  <c:v>4973.5418511062398</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9418.5544955277601</c:v>
+                  <c:v>4972.9667231203503</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9411.2289748472995</c:v>
+                  <c:v>4971.7943991816001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9403.2931646939396</c:v>
+                  <c:v>4970.7647867967298</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9397.7934580579204</c:v>
+                  <c:v>4963.0923494242797</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9395.8349723047795</c:v>
+                  <c:v>4959.1145080533297</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9392.6960399377203</c:v>
+                  <c:v>4955.8603637325295</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9389.4296491579207</c:v>
+                  <c:v>4954.95059977455</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9388.3228786776599</c:v>
+                  <c:v>4950.8398748808304</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9384.0807751895409</c:v>
+                  <c:v>4948.4255259803103</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9378.7685834957392</c:v>
+                  <c:v>4946.0862308386795</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9375.4429712923193</c:v>
+                  <c:v>4944.3647492472301</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9371.79499357842</c:v>
+                  <c:v>4941.5137151605804</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9357.8228446250996</c:v>
+                  <c:v>4938.6917094468299</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9354.01305254832</c:v>
+                  <c:v>4937.9157099738595</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9351.1791595249215</c:v>
+                  <c:v>4934.5929746963093</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9338.2459307680801</c:v>
+                  <c:v>4930.3929007844999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9335.3336807056203</c:v>
+                  <c:v>4925.8710133310706</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9328.4268984545415</c:v>
+                  <c:v>4924.6787292766494</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>9325.7421662548804</c:v>
+                  <c:v>4921.11440716176</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>9320.4986839903813</c:v>
+                  <c:v>4918.6520038592398</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9309.0119587142399</c:v>
+                  <c:v>4916.6813423450103</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9304.5864515565609</c:v>
+                  <c:v>4912.6524234408898</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>9302.453667486061</c:v>
+                  <c:v>4909.4474131725001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>9298.6821672441001</c:v>
+                  <c:v>4903.4455349826603</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>9293.4015432805791</c:v>
+                  <c:v>4900.9889832632098</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9287.0944559330401</c:v>
+                  <c:v>4897.6919132711701</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9281.5705073084391</c:v>
+                  <c:v>4894.7517278777095</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9276.5685863343006</c:v>
+                  <c:v>4893.4327355711703</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9272.1005719533587</c:v>
+                  <c:v>4889.5078443619805</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9269.7524675385612</c:v>
+                  <c:v>4887.8169848964299</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9256.6541784540605</c:v>
+                  <c:v>4884.8773314015907</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>9250.4802361479597</c:v>
+                  <c:v>4880.5643887860297</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9245.6214109823995</c:v>
+                  <c:v>4878.8803510375201</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9230.6465390011799</c:v>
+                  <c:v>4874.7704705728502</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9222.5013610489805</c:v>
+                  <c:v>4872.7568000759102</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9217.7955858395399</c:v>
+                  <c:v>4869.7254790799398</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>9209.1956778147596</c:v>
+                  <c:v>4868.1911587171799</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9204.8178712604404</c:v>
+                  <c:v>4862.7661491807603</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9203.4070837632607</c:v>
+                  <c:v>4861.6127634387303</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>9200.0215460640011</c:v>
+                  <c:v>4859.3058246723303</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>9195.4705681921805</c:v>
+                  <c:v>4856.0697435897891</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9190.7059862737806</c:v>
+                  <c:v>4852.7954250584999</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9184.6632194592003</c:v>
+                  <c:v>4851.0135507684599</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9181.4022037432187</c:v>
+                  <c:v>4850.2481209001098</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9174.448084519081</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>9174.2870224709404</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9158.7899886919804</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9148.9017793008006</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9147.0146682887407</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9147.0146682887407</c:v>
+                  <c:v>4849.8059254017599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,11 +3325,1218 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-463529024"/>
-        <c:axId val="-463530112"/>
+        <c:axId val="-146496224"/>
+        <c:axId val="-146500032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-463529024"/>
+        <c:axId val="-146496224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-UY"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-UY" baseline="0"/>
+                  <a:t> QoS</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-UY"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-UY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-146500032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-146500032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-UY"/>
+                  <a:t>Monthly cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-UY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-UY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-146496224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-UY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>low_high_0!$D$2:$D$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99782481876414664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99040596967401073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641810806322294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98375456501835301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98056195458908013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97696417955528714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97347210208783508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96519613470926557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96222580008185865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96154726438693994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95764969293973801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95269984982261147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94784292390112657</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94381218444418769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9434742893734166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94023572235011199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93588562292047839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93121868275408304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92979640361106664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92780662683859094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9246977677946937</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91682329127793882</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90564247083290494</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90328667011765451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89358174383799749</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89202166776960967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89154150852734415</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88677427260461328</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88548235136339648</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.87583356033461723</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86877128427712347</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86534249267794039</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86303776488146144</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85746634765502505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.85071538199358843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8451544293568346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84289407885725565</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83968764857830713</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83214038534001977</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82944418025571209</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.82433282332895175</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.82196775260977017</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.80962127911655302</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8056366014799814</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.80509171882407315</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80446952727819765</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.80242899999061001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80093174322723015</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.796527130830469</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.79397758268921914</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.77408384673048736</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.77376592200765748</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.77073776919220971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76771104196642626</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.75861983382502629</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75556204833175189</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.74674479891756795</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.74369548231319504</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.73959430887383204</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.73142684340527264</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71367668565351672</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70977269807618093</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70040615331314082</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.69718441476576898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69389161167151203</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67187523598871957</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.66399621197179115</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.66077548848111278</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.61861330963613292</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61553931748530555</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.61236469692547768</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60814995264426619</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.59463198526111483</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.56807045059572403</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.55491315801715191</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.55211406387993078</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52002141796234114</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.51860583635991664</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.50813370838480021</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.49712028106341716</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.49454546031029883</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.48040041672438238</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47368571268970094</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.46810463148212317</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.45518844385462404</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.44590584744903944</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44418537628618471</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.42751672258748591</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.42175977988529167</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.41891113669924518</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.40392013892709988</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39922603396775413</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.39624714500174452</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.39074617336789763</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.38227045166823653</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.37874433352961984</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.37080509186545813</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.36366460031310155</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.3469231026753466</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.34014975837102529</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.33834719782391498</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.32483136782277139</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.31286349521242168</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.31083616773017386</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.29778172432352118</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.28291024584534075</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.2806653235372229</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.26184919412708851</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.26037093148500828</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.25783411582945015</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.25566318551668976</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.25411319547763617</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.24781413459925916</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.23775403815103735</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.23318590691480467</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.23245438331889054</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.22923426016067203</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.20338599144263461</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.20107593453728767</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.19924198752346822</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.19508062345517591</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.18559390891846136</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.16977867504677652</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.13938420226743709</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.13509497002628384</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.13100302214017995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.1270067807855165</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.12399509842535048</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.11486031791540854</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.11203170842806137</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.10901145591838381</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.10434239340929742</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.10265577017800261</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.10079799323989093</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.031523647817568E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.8415250115562944E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0975457040524182E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>low_high_0!$E$2:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>10085.54117965128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10085.54117965128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10003.311410640541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9998.1262033122603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9962.9808921448202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9945.16856753514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9936.8146404823801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9921.0037787240999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9914.6436218737799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9908.2639075706993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9884.5712087449192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9865.6620217981199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9855.5346469940396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9846.099365944081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9830.1343926955196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9826.5723431793595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9824.7616420099803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9813.1815561526801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9809.7979241031589</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9803.52218313714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9799.0499399548789</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9792.5750979895802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9786.5670629298602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9779.2773533356813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9774.6665181445205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9770.4414938907594</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9766.4558557598393</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9761.9684549647791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9758.5799089496395</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9758.0921595384607</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9749.7391349126392</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9734.4622467375611</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9724.9169534608791</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9718.0478031739203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9713.0823509824186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9704.5605236697593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9694.1975846216392</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9687.9489655016987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9679.2218678349</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9675.6834434165394</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9662.1013524584414</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9657.1927451893189</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9648.28770070266</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9645.5131678201215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9644.2881611232006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9642.6962224002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9642.0764003362201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9637.2022868595013</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9632.1447878727013</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9625.0948458865205</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9619.9957477609205</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9608.4600425011213</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9605.947783330801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9601.5710660680797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9598.6538509946404</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9589.4244740467202</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9580.7394817068598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9577.9418175887404</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9574.1829050734195</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9569.6751319070991</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9566.6060094397799</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9559.6656692250599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9554.7281346158397</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9549.84629404728</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9546.4507997516994</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9541.1003838079196</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9537.4270744723199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9534.4943551726792</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9530.3867385212998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9525.790682995681</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9512.2174973584788</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9507.0142164101999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9503.0705863333806</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9500.8606355950797</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9494.5497441519001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9486.5275386471585</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9482.0965397521795</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9477.5494523125799</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9471.9104863133998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9465.8680454883615</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9463.4276277042009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9458.1211757900401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9455.6415508370992</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9449.1378028759209</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9442.5146174180991</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9437.4333238391391</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9435.9690140125203</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9429.1243144146611</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9426.6793431798615</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9425.0908331323208</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9422.1126933507585</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9418.5544955277601</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9411.2289748472995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9403.2931646939396</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9397.7934580579204</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9395.8349723047795</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9392.6960399377203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9389.4296491579207</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9388.3228786776599</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9384.0807751895409</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9378.7685834957392</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9375.4429712923193</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9371.79499357842</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9357.8228446250996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9354.01305254832</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9351.1791595249215</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9338.2459307680801</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9335.3336807056203</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9328.4268984545415</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9325.7421662548804</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9320.4986839903813</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9309.0119587142399</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9304.5864515565609</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9302.453667486061</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9298.6821672441001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9293.4015432805791</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9287.0944559330401</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9281.5705073084391</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9276.5685863343006</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9272.1005719533587</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9269.7524675385612</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9256.6541784540605</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9250.4802361479597</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9245.6214109823995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9230.6465390011799</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9222.5013610489805</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9217.7955858395399</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9209.1956778147596</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9204.8178712604404</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9203.4070837632607</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9200.0215460640011</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9195.4705681921805</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9190.7059862737806</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9184.6632194592003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9181.4022037432187</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9174.448084519081</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9174.2870224709404</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9158.7899886919804</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9148.9017793008006</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9147.0146682887407</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9147.0146682887407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-146492960"/>
+        <c:axId val="-146491328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-146492960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3567,12 +4655,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463530112"/>
+        <c:crossAx val="-146491328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-463530112"/>
+        <c:axId val="-146491328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +4773,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-463529024"/>
+        <c:crossAx val="-146492960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3815,6 +4903,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5402,7 +6530,560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5437,7 +7118,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5474,7 +7155,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5774,6 +7455,2476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>260.69366822815903</v>
+      </c>
+      <c r="B2">
+        <v>1.1903866599738999</v>
+      </c>
+      <c r="C2">
+        <f>1/B2</f>
+        <v>0.84006317747371739</v>
+      </c>
+      <c r="D2">
+        <f>(C2-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>A2*(24/96)*30</f>
+        <v>1955.2025117111928</v>
+      </c>
+      <c r="F2">
+        <f>E2/2</f>
+        <v>977.60125585559638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>260.60416211504202</v>
+      </c>
+      <c r="B3">
+        <v>1.1919432790817199</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">1/B3</f>
+        <v>0.83896609641559949</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">(C3-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <v>0.99759372780805022</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="2">A3*(24/96)*30</f>
+        <v>1954.5312158628151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>260.21795436038701</v>
+      </c>
+      <c r="B4">
+        <v>1.1925444473370701</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.83854316896362369</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.99666610394710475</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1951.6346577029026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>259.926468097645</v>
+      </c>
+      <c r="B5">
+        <v>1.1928949649839999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.83829677327325525</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.99612567432837906</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1949.4485107323376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>259.860439303443</v>
+      </c>
+      <c r="B6">
+        <v>1.1956988366069601</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.83633099689024071</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.99181405759683661</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1948.9532947758225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>259.51496318864997</v>
+      </c>
+      <c r="B7">
+        <v>1.19833652144017</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.83449013036687925</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.98777641070513378</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>1946.3622239148749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>259.42383436547698</v>
+      </c>
+      <c r="B8">
+        <v>1.20064392015515</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.83288640637998457</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.9842588981160022</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1945.6787577410773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>258.92212738463201</v>
+      </c>
+      <c r="B9">
+        <v>1.20343094622909</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.83095752451228388</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.98002820361493526</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1941.9159553847401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>258.66651335349599</v>
+      </c>
+      <c r="B10">
+        <v>1.20701932350084</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.82848715056159916</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.97460983265933099</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1939.9988501512198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>258.49382118160702</v>
+      </c>
+      <c r="B11">
+        <v>1.2134644222729301</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.82408678956314874</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.96495834316658879</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1938.7036588620526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>258.38861329195402</v>
+      </c>
+      <c r="B12">
+        <v>1.2182326689204801</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.82086125705866686</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.95788365245678841</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>1937.914599689655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>258.06155083243902</v>
+      </c>
+      <c r="B13">
+        <v>1.2193364844824901</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.82011816485948852</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.95625379832549462</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1935.4616312432927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>257.78842717932798</v>
+      </c>
+      <c r="B14">
+        <v>1.2344697049146001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.81006443173036757</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.93420253941907427</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1933.4132038449598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>256.35554564601102</v>
+      </c>
+      <c r="B15">
+        <v>1.2354002766900301</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.8094542464238953</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.93286419534318665</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1922.6665923450828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>256.25288034854401</v>
+      </c>
+      <c r="B16">
+        <v>1.2385015081583599</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.80742735750640349</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.92841853802165852</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1921.8966026140802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>255.88129155470301</v>
+      </c>
+      <c r="B17">
+        <v>1.23965560892124</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.8066756547572187</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.9267697980232863</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1919.1096866602725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>255.72856651333899</v>
+      </c>
+      <c r="B18">
+        <v>1.24056619423513</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.80608354850145592</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.92547110745946803</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1917.9642488500424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>255.674876937882</v>
+      </c>
+      <c r="B19">
+        <v>1.2411732061078999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.80568932287526851</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.92460643647218832</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>1917.5615770341151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>255.62937232171899</v>
+      </c>
+      <c r="B20">
+        <v>1.2446401379158201</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.80344508387341917</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.91968405643264639</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1917.2202924128924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>255.50239651638</v>
+      </c>
+      <c r="B21">
+        <v>1.2458367148398199</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.80267340662582121</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.91799150556020603</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1916.26797387285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>255.03138252480801</v>
+      </c>
+      <c r="B22">
+        <v>1.2485313898372601</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.80094101609279134</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.91419178343905461</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1912.73536893606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>254.98812850722399</v>
+      </c>
+      <c r="B23">
+        <v>1.25025446430971</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.79983717598810544</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.91177068635729364</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1912.41096380418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>254.95197338025599</v>
+      </c>
+      <c r="B24">
+        <v>1.2520575550225499</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.7986853287922453</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.90924429338362545</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1912.13980035192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>254.826739987173</v>
+      </c>
+      <c r="B25">
+        <v>1.2544284146143401</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.79717581995895614</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.90593342669590993</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1911.2005499037975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>254.698590468177</v>
+      </c>
+      <c r="B26">
+        <v>1.25497372836391</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.79682942949226887</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.90517367449585284</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1910.2394285113276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>253.97938395492901</v>
+      </c>
+      <c r="B27">
+        <v>1.25754343119118</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.79520116379024164</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.901602333571769</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1904.8453796619676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>253.896207376684</v>
+      </c>
+      <c r="B28">
+        <v>1.2646156336504899</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.79075410218784037</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.89184841375831114</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>1904.2215553251301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>253.794921327374</v>
+      </c>
+      <c r="B29">
+        <v>1.2675958508973</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.78889497728485347</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.88777072002518509</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>1903.4619099553049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>253.60795819447301</v>
+      </c>
+      <c r="B30">
+        <v>1.2681955448907001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.78852193104509394</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.88695250264151726</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1902.0596864585475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>253.44390412673101</v>
+      </c>
+      <c r="B31">
+        <v>1.2718037482211799</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.78628483474644517</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.88204578898137342</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>1900.8292809504826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>253.426741697556</v>
+      </c>
+      <c r="B32">
+        <v>1.2785691457455799</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.78212430147206768</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.87292032332162428</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>1900.7005627316701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>253.22340666092401</v>
+      </c>
+      <c r="B33">
+        <v>1.28028451736469</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.78107638297335535</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.87062188135671881</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>1899.1755499569301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>253.07633042321001</v>
+      </c>
+      <c r="B34">
+        <v>1.2834690518118399</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.77913838170723793</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.86637118491080445</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>1898.0724781740751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>252.825946597328</v>
+      </c>
+      <c r="B35">
+        <v>1.28839550160081</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.7761591830750082</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0.85983678823155862</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1896.1945994799601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>252.64572718194199</v>
+      </c>
+      <c r="B36">
+        <v>1.28903345626593</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.77577505466522056</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0.85899426387679889</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1894.8429538645651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>252.63629943940299</v>
+      </c>
+      <c r="B37">
+        <v>1.2967507095486199</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.77115824393732968</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0.84886802645084469</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>1894.7722457955224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>252.571230840634</v>
+      </c>
+      <c r="B38">
+        <v>1.29746526886717</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.77073354023041407</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.84793650665820308</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>1894.2842313047549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>252.423799053701</v>
+      </c>
+      <c r="B39">
+        <v>1.29941783824762</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.76957539797097796</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.84539630646735864</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>1893.1784929027576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>252.344156163696</v>
+      </c>
+      <c r="B40">
+        <v>1.3029463590121899</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.76749130390765719</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0.84082517878917262</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>1892.58117122772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>252.21042837923599</v>
+      </c>
+      <c r="B41">
+        <v>1.30677591870231</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.76524213959578247</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.83589199586823637</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>1891.57821284427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>251.944568681021</v>
+      </c>
+      <c r="B42">
+        <v>1.31594401666806</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.75991074645559542</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.82419843597796538</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>1889.5842651076575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>251.899592294787</v>
+      </c>
+      <c r="B43">
+        <v>1.3172035708351399</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.75918409435071232</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0.82260464056944593</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>1889.2469422109025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>251.604004862604</v>
+      </c>
+      <c r="B44">
+        <v>1.32254199819101</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.75611965545730331</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>0.81588328298280632</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>1887.0300364695299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>251.54894014404201</v>
+      </c>
+      <c r="B45">
+        <v>1.3273679004835801</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.75337063645707036</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.80985374858655113</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>1886.6170510803152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>251.24397340270099</v>
+      </c>
+      <c r="B46">
+        <v>1.32954428212678</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.75213741538594647</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.80714887500586718</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>1884.3298005202573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>250.99861568920201</v>
+      </c>
+      <c r="B47">
+        <v>1.33624349207774</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.74836660079450701</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.79887819507274971</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>1882.4896176690152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>250.89187982652399</v>
+      </c>
+      <c r="B48">
+        <v>1.3373147644738901</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.7477671125491594</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.79756331329304286</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>1881.6890986989299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>250.71830419031099</v>
+      </c>
+      <c r="B49">
+        <v>1.3416995342332301</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.74532335629936064</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.79220332401578553</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>1880.3872814273325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>250.61044187678701</v>
+      </c>
+      <c r="B50">
+        <v>1.3450503977306301</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.74346656577865089</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.78813075037758529</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>1879.5783140759027</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>250.381518374661</v>
+      </c>
+      <c r="B51">
+        <v>1.34870352130675</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.7414527983371072</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.78371387291918371</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>1877.8613878099575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>250.29833755815599</v>
+      </c>
+      <c r="B52">
+        <v>1.3557623101415299</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.7375924175791615</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.77524674389581094</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>1877.2375316861699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>250.181778630932</v>
+      </c>
+      <c r="B53">
+        <v>1.3684860680403199</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.73073451265163836</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.76020502405202484</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>1876.36333973199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>249.622142690061</v>
+      </c>
+      <c r="B54">
+        <v>1.36921054110795</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.73034786833499765</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.7593569814571558</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>1872.1660701754574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>249.58051195710601</v>
+      </c>
+      <c r="B55">
+        <v>1.37009095841596</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.7298785484696263</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.75832760324228621</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>1871.8538396782951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>249.557943465352</v>
+      </c>
+      <c r="B56">
+        <v>1.38778861482312</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.72057083428909274</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.73791261782483941</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>1871.68457599014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>249.40142335816299</v>
+      </c>
+      <c r="B57">
+        <v>1.3908387795513999</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.71899059380738528</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.73444661255604982</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>1870.5106751862224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>249.21300953389101</v>
+      </c>
+      <c r="B58">
+        <v>1.40132595128559</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.71360984864555621</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.7226448068835597</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>1869.0975715041825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>247.21850905358599</v>
+      </c>
+      <c r="B59">
+        <v>1.41075916512467</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.70883820904443962</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.71217897703697508</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>1854.138817901895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>247.13292837749501</v>
+      </c>
+      <c r="B60">
+        <v>1.4177524275784199</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.70534176528129211</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.7045100857224067</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>1853.4969628312126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>247.05066323587801</v>
+      </c>
+      <c r="B61">
+        <v>1.41893936141621</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.70475175133764945</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.70321598431126242</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>1852.8799742690851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>246.36715723211901</v>
+      </c>
+      <c r="B62">
+        <v>1.42304875971714</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.70271660979401052</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.69875222617151189</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>1847.7536792408926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>243.46020525176101</v>
+      </c>
+      <c r="B63">
+        <v>1.42484364721185</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.70183139178590659</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.69681064176354857</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>1825.9515393882075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>243.35719337471599</v>
+      </c>
+      <c r="B64">
+        <v>1.4325299627299</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.69806567821754351</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.6885511501103565</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>1825.1789503103698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>242.71487556465399</v>
+      </c>
+      <c r="B65">
+        <v>1.436554595009</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.69610998668222213</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.68426165288255048</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>1820.361566734905</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>242.631824363319</v>
+      </c>
+      <c r="B66">
+        <v>1.43749903819574</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.69565263936116317</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.6832585345326494</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>1819.7386827248924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>241.796513169901</v>
+      </c>
+      <c r="B67">
+        <v>1.44466679183422</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="3">1/B67</f>
+        <v>0.69220113984232368</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="4">(C67-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <v>0.67568822124425909</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="5">A67*(24/96)*30</f>
+        <v>1813.4738487742575</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>241.54836999426701</v>
+      </c>
+      <c r="B68">
+        <v>1.4494792197481301</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>0.68990295712812344</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>0.67064752428182428</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>1811.6127749570026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>241.37346707844199</v>
+      </c>
+      <c r="B69">
+        <v>1.4535206696468399</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>0.68798471248638571</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>0.66644016083806135</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="5"/>
+        <v>1810.3010030883149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>241.32151544159001</v>
+      </c>
+      <c r="B70">
+        <v>1.4581743334977</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>0.68578905623809439</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>0.6616243393139819</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="5"/>
+        <v>1809.911365811925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>241.19341310483</v>
+      </c>
+      <c r="B71">
+        <v>1.46043817093422</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>0.6847260088801399</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>0.65929271461109995</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="5"/>
+        <v>1808.9505982862249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>241.16272045301099</v>
+      </c>
+      <c r="B72">
+        <v>1.4650723045485099</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>0.68256016914343975</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>0.65454229084607563</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="5"/>
+        <v>1808.7204033975825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>241.08899993289199</v>
+      </c>
+      <c r="B73">
+        <v>1.4662989693514801</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>0.68198915835171292</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="4"/>
+        <v>0.65328986981549775</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="5"/>
+        <v>1808.16749949669</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>241.008474198394</v>
+      </c>
+      <c r="B74">
+        <v>1.4725879881453601</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>0.6790765699912048</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="4"/>
+        <v>0.64690157213536958</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="5"/>
+        <v>1807.5635564879549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>240.9010273239</v>
+      </c>
+      <c r="B75">
+        <v>1.4812765039674101</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>0.67509340580345911</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="4"/>
+        <v>0.63816513725663304</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="5"/>
+        <v>1806.7577049292499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>240.76151811508299</v>
+      </c>
+      <c r="B76">
+        <v>1.4837276834962201</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>0.67397812356215137</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="4"/>
+        <v>0.63571894367451232</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="5"/>
+        <v>1805.7113858631224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>240.64348151073199</v>
+      </c>
+      <c r="B77">
+        <v>1.4937775024248501</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>0.66944374137158935</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="4"/>
+        <v>0.62577350008847521</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="5"/>
+        <v>1804.82611133049</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>240.57650886611401</v>
+      </c>
+      <c r="B78">
+        <v>1.51768926678906</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>0.65889640381767789</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="4"/>
+        <v>0.6026395986622447</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="5"/>
+        <v>1804.323816495855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>240.081534467041</v>
+      </c>
+      <c r="B79">
+        <v>1.51962784045207</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>0.6580558564276584</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="4"/>
+        <v>0.60079599212501245</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="5"/>
+        <v>1800.6115085028075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>239.99774457356301</v>
+      </c>
+      <c r="B80">
+        <v>1.5875381017528101</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>0.62990614139962631</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="4"/>
+        <v>0.5390540852877298</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="5"/>
+        <v>1799.9830843017226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>239.892045606332</v>
+      </c>
+      <c r="B81">
+        <v>1.6045525463936201</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>0.62322670718861295</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>0.52440381247425838</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="5"/>
+        <v>1799.19034204749</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>239.70572879166099</v>
+      </c>
+      <c r="B82">
+        <v>1.6091622350439401</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="3"/>
+        <v>0.62144138000646887</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="4"/>
+        <v>0.52048798226268289</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="5"/>
+        <v>1797.7929659374574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>239.65198397387999</v>
+      </c>
+      <c r="B83">
+        <v>1.61526072989465</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="3"/>
+        <v>0.61909509808068053</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="4"/>
+        <v>0.51534178735691683</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="5"/>
+        <v>1797.3898798041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>239.35951266696901</v>
+      </c>
+      <c r="B84">
+        <v>1.6211863796114401</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>0.61683222396654747</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="4"/>
+        <v>0.5103785341729975</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="5"/>
+        <v>1795.1963450022677</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>239.28937939317501</v>
+      </c>
+      <c r="B85">
+        <v>1.7501722651923599</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>0.5713723271063782</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="4"/>
+        <v>0.41066950642696182</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="5"/>
+        <v>1794.6703454488127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>239.21990265484899</v>
+      </c>
+      <c r="B86">
+        <v>1.7503973704035001</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>0.5712988472837347</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="4"/>
+        <v>0.4105083401643706</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="5"/>
+        <v>1794.1492699113674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>239.18326824585299</v>
+      </c>
+      <c r="B87">
+        <v>1.7532377699519399</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>0.57037329285200844</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="4"/>
+        <v>0.40847828424943255</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="5"/>
+        <v>1793.8745118438974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>239.13431583125401</v>
+      </c>
+      <c r="B88">
+        <v>1.75737375237075</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>0.56903091823863305</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>0.4055339997962073</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="5"/>
+        <v>1793.5073687344052</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>239.01715100485001</v>
+      </c>
+      <c r="B89">
+        <v>1.7638845288495799</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>0.56693053521604853</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="4"/>
+        <v>0.40092714488581532</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="5"/>
+        <v>1792.6286325363751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>238.963738929838</v>
+      </c>
+      <c r="B90">
+        <v>1.7659892776531001</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>0.56625485366986117</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="4"/>
+        <v>0.39944514526220182</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="5"/>
+        <v>1792.2280419737849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>238.88193216515899</v>
+      </c>
+      <c r="B91">
+        <v>1.7667604482349799</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>0.56600768994971273</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="4"/>
+        <v>0.39890303109274172</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="5"/>
+        <v>1791.6144912386924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>238.746196364387</v>
+      </c>
+      <c r="B92">
+        <v>1.77139565463782</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>0.56452661909936785</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="4"/>
+        <v>0.39565453858152633</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="5"/>
+        <v>1790.5964727329026</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>238.731040467453</v>
+      </c>
+      <c r="B93">
+        <v>1.79886478663194</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>0.55590615116343745</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="4"/>
+        <v>0.37674691810778521</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="5"/>
+        <v>1790.4828035058974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>238.64019854804701</v>
+      </c>
+      <c r="B94">
+        <v>1.79950482897556</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>0.55570842817314914</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="4"/>
+        <v>0.37631324428786156</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="5"/>
+        <v>1789.8014891103526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>238.54476918245601</v>
+      </c>
+      <c r="B95">
+        <v>1.7999796985266401</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>0.55556182151306621</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="4"/>
+        <v>0.37599168597938304</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="5"/>
+        <v>1789.08576886842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>238.49086346369501</v>
+      </c>
+      <c r="B96">
+        <v>1.8048911652454001</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>0.55405002764476163</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="4"/>
+        <v>0.37267580743208389</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="5"/>
+        <v>1788.6814759777126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>238.38371623421801</v>
+      </c>
+      <c r="B97">
+        <v>1.80687766957745</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>0.55344089798500662</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="4"/>
+        <v>0.37133977874877511</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="5"/>
+        <v>1787.8778717566352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>238.34270615186</v>
+      </c>
+      <c r="B98">
+        <v>1.81742713730876</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>0.55022838576120114</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>0.36429364594642483</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="5"/>
+        <v>1787.57029613895</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>238.321874673428</v>
+      </c>
+      <c r="B99">
+        <v>1.8186047136360901</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>0.54987210387276275</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>0.3635121984915618</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="5"/>
+        <v>1787.4140600507101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>238.27753463003501</v>
+      </c>
+      <c r="B100">
+        <v>1.82319297357874</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>0.54848829196456539</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>0.36047702794609937</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="5"/>
+        <v>1787.0815097252625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>238.235208079469</v>
+      </c>
+      <c r="B101">
+        <v>1.8280008395071099</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>0.54704570062978386</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>0.35731293411041914</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="5"/>
+        <v>1786.7640605960175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>238.20935643202</v>
+      </c>
+      <c r="B102">
+        <v>1.82847261497624</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="3"/>
+        <v>0.54690455400284699</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>0.3570033515131511</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="5"/>
+        <v>1786.5701732401501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>238.20110734204599</v>
+      </c>
+      <c r="B103">
+        <v>1.8441599199096199</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>0.54225232269932899</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>0.3467994247081635</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="5"/>
+        <v>1786.508305065345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>238.15132951494999</v>
+      </c>
+      <c r="B104">
+        <v>1.8501146349398101</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="3"/>
+        <v>0.54050704811193118</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>0.34297144347022607</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="5"/>
+        <v>1786.134971362125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>238.13579159800301</v>
+      </c>
+      <c r="B105">
+        <v>1.85781740627523</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="3"/>
+        <v>0.53826603013959118</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>0.33805612824479286</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="5"/>
+        <v>1786.0184369850226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>238.11659869746799</v>
+      </c>
+      <c r="B106">
+        <v>1.85856548926895</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="3"/>
+        <v>0.53804937505502748</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>0.3375809298978954</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="5"/>
+        <v>1785.87449023101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>238.05543975721099</v>
+      </c>
+      <c r="B107">
+        <v>1.86509402550325</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="3"/>
+        <v>0.53616599824246103</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>0.33345004347204066</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="5"/>
+        <v>1785.4157981790825</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>238.018340912079</v>
+      </c>
+      <c r="B108">
+        <v>1.86778718700524</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="3"/>
+        <v>0.53539290073157275</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>0.33175437747876629</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="5"/>
+        <v>1785.1375568405924</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>237.794092143689</v>
+      </c>
+      <c r="B109">
+        <v>1.8691428110224699</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="3"/>
+        <v>0.5350045989546266</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>0.33090269950927043</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="5"/>
+        <v>1783.4556910776676</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>237.735162727193</v>
+      </c>
+      <c r="B110">
+        <v>1.8795076801509001</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="3"/>
+        <v>0.53205422385915069</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>0.32443152265726632</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="5"/>
+        <v>1783.0137204539476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>237.71703732681399</v>
+      </c>
+      <c r="B111">
+        <v>1.8817654794802301</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="3"/>
+        <v>0.53141584905480033</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="4"/>
+        <v>0.32303134941720979</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="5"/>
+        <v>1782.8777799511049</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>237.582765247221</v>
+      </c>
+      <c r="B112">
+        <v>1.88318622166997</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>0.5310149301714947</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="4"/>
+        <v>0.32215199783877596</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="5"/>
+        <v>1781.8707393541576</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>237.53298602193601</v>
+      </c>
+      <c r="B113">
+        <v>1.88353243939774</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>0.53091732272991821</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="4"/>
+        <v>0.32193791149515077</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="5"/>
+        <v>1781.4973951645202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>237.50764028044901</v>
+      </c>
+      <c r="B114">
+        <v>1.8910282101265901</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>0.52881284088990799</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="4"/>
+        <v>0.31732206648296246</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="5"/>
+        <v>1781.3073021033676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>237.420856212339</v>
+      </c>
+      <c r="B115">
+        <v>1.89232386384774</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>0.52845076844650618</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="4"/>
+        <v>0.31652791837003841</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="5"/>
+        <v>1780.6564215925425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>237.280791380468</v>
+      </c>
+      <c r="B116">
+        <v>1.90090460695104</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>0.52606532507906967</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="4"/>
+        <v>0.31129582909271492</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="5"/>
+        <v>1779.6059353535099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>237.20051933268201</v>
+      </c>
+      <c r="B117">
+        <v>2.5646578258522399</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>0.38991556297288837</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="4"/>
+        <v>1.2673057263336616E-2</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="5"/>
+        <v>1779.0038949951149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>237.150043212204</v>
+      </c>
+      <c r="B118">
+        <v>2.5707244766439201</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="3"/>
+        <v>0.38899540152412587</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="4"/>
+        <v>1.0654829995736274E-2</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="5"/>
+        <v>1778.62532409153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>237.072152748977</v>
+      </c>
+      <c r="B119">
+        <v>2.5894056974827202</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="3"/>
+        <v>0.38618900119519539</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="4"/>
+        <v>4.4994388138221127E-3</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="5"/>
+        <v>1778.0411456173276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>237.00485675642599</v>
+      </c>
+      <c r="B120">
+        <v>2.59820375955083</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="3"/>
+        <v>0.38488128435811253</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="4"/>
+        <v>1.6311706610428575E-3</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="5"/>
+        <v>1777.536425673195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>236.987728837709</v>
+      </c>
+      <c r="B121">
+        <v>2.5987867023396101</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="3"/>
+        <v>0.38479495031267086</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="4"/>
+        <v>1.441810712452356E-3</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="5"/>
+        <v>1777.4079662828176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>236.79398777217301</v>
+      </c>
+      <c r="B122">
+        <v>2.6032338959681498</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="3"/>
+        <v>0.38413759191933744</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="5"/>
+        <v>1775.9549082912977</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B146">
+    <sortCondition ref="B2:B146"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8400,7 +12551,7 @@
         <v>2.19620727654392</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C175" si="35">1/B131</f>
+        <f t="shared" ref="C131:C146" si="35">1/B131</f>
         <v>0.45533042836177939</v>
       </c>
       <c r="D131">
@@ -8722,7 +12873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
@@ -11492,11 +15643,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -14120,11 +18271,11 @@
         <v>2.0719602332657101</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C157" si="6">1/B131</f>
+        <f t="shared" ref="C131:C142" si="6">1/B131</f>
         <v>0.48263474556355496</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D157" si="7">(C131-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <f t="shared" ref="D131:D142" si="7">(C131-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
         <v>0.12399509842535048</v>
       </c>
       <c r="E131">
